--- a/data/s3/Annelinn/archetypes/stats_trans.xlsx
+++ b/data/s3/Annelinn/archetypes/stats_trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s2\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC488432-458A-4A09-A2FC-EE1B5A38DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EAFAB0-C74A-42DD-8B4B-E59017240F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,18 +89,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,15 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +434,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,10 +446,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -476,11 +466,11 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C2">
+        <v>0.44</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -496,11 +486,11 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C3">
+        <v>0.6</v>
+      </c>
+      <c r="D3">
+        <v>0.03</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -516,11 +506,11 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C4">
+        <v>0.61</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -536,11 +526,11 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -556,11 +546,11 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C6">
+        <v>0.49</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -576,11 +566,11 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -596,11 +586,11 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C8">
+        <v>0.49</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -616,11 +606,11 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C9">
+        <v>0.6</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -636,11 +626,11 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C10">
+        <v>0.72</v>
+      </c>
+      <c r="D10">
+        <v>0.12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -656,11 +646,11 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
+        <v>0.04</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -676,11 +666,11 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -696,11 +686,11 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -716,11 +706,11 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C14">
+        <v>0.83</v>
+      </c>
+      <c r="D14">
+        <v>0.12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -736,11 +726,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>0.04</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -756,11 +746,11 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.57599999999999996</v>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16">
+        <v>0.11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -776,11 +766,11 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.42399999999999999</v>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17">
+        <v>0.05</v>
       </c>
       <c r="E17">
         <v>0</v>
